--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="11" sheetId="10" r:id="rId1"/>
+    <sheet name="info" sheetId="14" r:id="rId1"/>
     <sheet name="space_raw" sheetId="3" r:id="rId2"/>
     <sheet name="tasktype_raw" sheetId="5" r:id="rId3"/>
     <sheet name="dep_raw" sheetId="11" r:id="rId4"/>
-    <sheet name="labor_row" sheetId="12" r:id="rId5"/>
-    <sheet name="space" sheetId="2" r:id="rId6"/>
-    <sheet name="work" sheetId="7" r:id="rId7"/>
-    <sheet name="dep" sheetId="9" r:id="rId8"/>
+    <sheet name="labor_raw" sheetId="12" r:id="rId5"/>
+    <sheet name="alt_raw" sheetId="13" r:id="rId6"/>
+    <sheet name="space" sheetId="2" r:id="rId7"/>
+    <sheet name="work" sheetId="7" r:id="rId8"/>
+    <sheet name="dep" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
   <si>
     <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,103 +71,409 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>모듈반입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부작업코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부작업명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공종ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cme4_1, m_cme4_2, m_cme4_3, m_cme4_4, m_cme4_5, m_cme4_6, m_cme4_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cme4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cme4_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cme4_A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cme4_1_B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_space_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4</t>
+  </si>
+  <si>
+    <t>cme4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13</t>
+  </si>
+  <si>
+    <t>cme4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cep13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required_labor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선행공종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후행공종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep_raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선행공종이 Z가 아니고 후행공종이 Z인 경우는 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>모듈설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모듈반입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부작업코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부작업명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공종ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cme4_1, m_cme4_2, m_cme4_3, m_cme4_4, m_cme4_5, m_cme4_6, m_cme4_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cme4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cme4_A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cme4_A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cme4_1_B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
+    <t>모듈설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,173 +485,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upper_space_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4</t>
-  </si>
-  <si>
-    <t>cme4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13</t>
-  </si>
-  <si>
-    <t>cme4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cep13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cme5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>labor_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>labor_name</t>
+    <t>Z2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt_raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 task는 alt를 가지고 있어야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,12 +866,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -725,7 +904,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,16 +914,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -752,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -766,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -777,10 +956,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -797,10 +976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,39 +993,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -854,39 +1033,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -894,21 +1073,41 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="b">
+      <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -920,44 +1119,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -968,20 +1205,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -992,10 +1265,145 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,30 +1414,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1040,13 +1448,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1057,13 +1465,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1074,13 +1482,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1091,13 +1499,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1108,13 +1516,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1125,13 +1533,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1142,13 +1550,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1159,13 +1567,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1176,13 +1584,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1193,13 +1601,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1210,13 +1618,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1227,13 +1635,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1244,13 +1652,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1261,13 +1669,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1278,13 +1686,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1299,7 +1707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1316,30 +1724,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1347,13 +1755,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1361,13 +1769,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>53</v>
@@ -1378,13 +1786,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>53</v>
@@ -1399,7 +1807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="info" sheetId="14" r:id="rId1"/>
     <sheet name="space_raw" sheetId="3" r:id="rId2"/>
-    <sheet name="tasktype_raw" sheetId="5" r:id="rId3"/>
-    <sheet name="dep_raw" sheetId="11" r:id="rId4"/>
-    <sheet name="labor_raw" sheetId="12" r:id="rId5"/>
-    <sheet name="alt_raw" sheetId="13" r:id="rId6"/>
-    <sheet name="space" sheetId="2" r:id="rId7"/>
-    <sheet name="work" sheetId="7" r:id="rId8"/>
-    <sheet name="dep" sheetId="9" r:id="rId9"/>
+    <sheet name="last_tasktype_raw" sheetId="15" r:id="rId3"/>
+    <sheet name="tasktype_raw" sheetId="5" r:id="rId4"/>
+    <sheet name="dep_raw" sheetId="11" r:id="rId5"/>
+    <sheet name="labor_raw" sheetId="12" r:id="rId6"/>
+    <sheet name="alt_raw" sheetId="13" r:id="rId7"/>
+    <sheet name="space" sheetId="2" r:id="rId8"/>
+    <sheet name="work" sheetId="7" r:id="rId9"/>
+    <sheet name="dep" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,6 +900,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
@@ -976,10 +992,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1203,7 +1255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1263,7 +1315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1398,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1707,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1805,19 +1857,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,11 @@
     <sheet name="space" sheetId="2" r:id="rId8"/>
     <sheet name="work" sheetId="7" r:id="rId9"/>
     <sheet name="dep" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet1!$A$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
   <si>
     <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,15 +498,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alt_raw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모든 task는 alt를 가지고 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secttion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_1_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4_1_A2</t>
+  </si>
+  <si>
+    <t>cme4_1_A3</t>
+  </si>
+  <si>
+    <t>cme5_1_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme5_1_A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme5_1_A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme5_Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cme5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,8 +623,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +947,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -888,10 +965,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -902,14 +979,275 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D9">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="cme4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -920,7 +1258,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -1031,7 +1369,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="E14" sqref="A7:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1512,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1533,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>100</v>
@@ -1243,10 +1581,10 @@
         <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1598,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1306,7 +1644,7 @@
         <v>82</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1320,10 +1658,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1429,7 +1770,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1764,7 +2105,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="10"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="14" r:id="rId1"/>
-    <sheet name="space_raw" sheetId="3" r:id="rId2"/>
-    <sheet name="last_tasktype_raw" sheetId="15" r:id="rId3"/>
-    <sheet name="tasktype_raw" sheetId="5" r:id="rId4"/>
-    <sheet name="dep_raw" sheetId="11" r:id="rId5"/>
-    <sheet name="labor_raw" sheetId="12" r:id="rId6"/>
-    <sheet name="alt_raw" sheetId="13" r:id="rId7"/>
-    <sheet name="space" sheetId="2" r:id="rId8"/>
-    <sheet name="work" sheetId="7" r:id="rId9"/>
-    <sheet name="dep" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
+    <sheet name="workpackage_raw" sheetId="17" r:id="rId2"/>
+    <sheet name="space_raw" sheetId="3" r:id="rId3"/>
+    <sheet name="last_tasktype_raw" sheetId="15" r:id="rId4"/>
+    <sheet name="tasktype_raw" sheetId="5" r:id="rId5"/>
+    <sheet name="dep_raw" sheetId="11" r:id="rId6"/>
+    <sheet name="labor_raw" sheetId="12" r:id="rId7"/>
+    <sheet name="alt_raw" sheetId="13" r:id="rId8"/>
+    <sheet name="space" sheetId="2" r:id="rId9"/>
+    <sheet name="work" sheetId="7" r:id="rId10"/>
+    <sheet name="dep" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet1!$A$1:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet1!$A$1:$D$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
   <si>
     <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,6 +980,106 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1103,13 +1204,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1255,10 +1356,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1364,12 +1509,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A7:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1593,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1653,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1791,7 +1936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2098,104 +2243,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>53</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>53</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>